--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1899603.254993759</v>
+        <v>1843825.732851154</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6479065.762182385</v>
+        <v>6479065.762182384</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>83.54954049855009</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>103.0712184591353</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>218.2545356023572</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>52.65774996597702</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>55.3715410770948</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4655268502615</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>48.89452557051471</v>
       </c>
       <c r="U11" t="n">
-        <v>89.98174747814602</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>32.90473339009694</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>175.1960580584912</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>66.97401714472393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>20.70860261596294</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>41.19781905414503</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.66929392497709</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356406</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>46.00897025967765</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>221.5974673091472</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>87.85911616936852</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.37527508885681</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>261.4697023004216</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>31.08912937430959</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.8427931564441</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>74.03100219413157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>53.82172055179754</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>99.78974769572881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>301.8912769522267</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>264.0251236100225</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>114.6949900224057</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>33.01662678174278</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>64.68670985805605</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>89.98174747814556</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.42522453130207</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>61.87063691762972</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2693,10 +2693,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.06064116356406</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>180.1218074160051</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>212.8649328121696</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.425224531301852</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>91.46303339260679</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.35168551462418</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>34.4650081944647</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>117.3450705775779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>67.24094528701774</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>241.9189633854832</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>66.17054555350505</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>134.9522891448557</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>207.4717730100104</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>98.68313739545462</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>98.6831373954543</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.089455600258695</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>147.2165261792108</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U39" t="n">
-        <v>79.10229168686659</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>10.27077547947476</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>124.2953633151025</v>
       </c>
       <c r="H41" t="n">
-        <v>86.65804289016221</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>138.0272426732114</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.13518083054779</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.295267780926</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>79.17328653851654</v>
+        <v>380.3849069482931</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.0905273959984</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.19479062707042</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>730.8505943024719</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.4044113554191</v>
+        <v>590.5599471655395</v>
       </c>
       <c r="C3" t="n">
-        <v>133.4044113554191</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4044113554191</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>376.8531879995192</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>133.4044113554191</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>133.4044113554191</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>133.4044113554191</v>
+        <v>758.7752841856075</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>495.259035872464</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>601.9376808682882</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249.0657303232264</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>249.0657303232264</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>249.0657303232264</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>908.1263059378132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>908.1263059378132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>908.1263059378132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>908.1263059378132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>908.1263059378132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>664.6775292937132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>456.8260290881803</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>249.0657303232264</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4998,16 +4998,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1145.475793905159</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="C11" t="n">
-        <v>776.5132769647469</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="D11" t="n">
-        <v>418.2475783579964</v>
+        <v>1017.743579880696</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975219</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.96628798761</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="U11" t="n">
-        <v>1532.07563396928</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="V11" t="n">
-        <v>1532.07563396928</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="W11" t="n">
-        <v>1532.07563396928</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="X11" t="n">
-        <v>1532.07563396928</v>
+        <v>1376.009278487446</v>
       </c>
       <c r="Y11" t="n">
-        <v>1532.07563396928</v>
+        <v>1376.009278487446</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>240.1494594753206</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C12" t="n">
-        <v>65.69643019419354</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D12" t="n">
-        <v>65.69643019419354</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="E12" t="n">
-        <v>65.69643019419354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
-        <v>65.69643019419354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
-        <v>65.69643019419354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>65.69643019419354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
         <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313476</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1541.568727888341</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U12" t="n">
-        <v>1313.36606042582</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V12" t="n">
-        <v>1078.213952194077</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W12" t="n">
-        <v>823.9765954658753</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X12" t="n">
-        <v>616.1250952603425</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y12" t="n">
-        <v>408.3647964953886</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5226,25 +5226,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1555.315765619201</v>
+        <v>735.889470491855</v>
       </c>
       <c r="C14" t="n">
-        <v>1186.35324867879</v>
+        <v>735.889470491855</v>
       </c>
       <c r="D14" t="n">
-        <v>828.0875500720392</v>
+        <v>735.889470491855</v>
       </c>
       <c r="E14" t="n">
-        <v>442.299297473795</v>
+        <v>735.889470491855</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>735.889470491855</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W14" t="n">
-        <v>1622.966287987609</v>
+        <v>735.889470491855</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.966287987609</v>
+        <v>735.889470491855</v>
       </c>
       <c r="Y14" t="n">
-        <v>1555.315765619201</v>
+        <v>735.889470491855</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>536.0020001277505</v>
+        <v>556.6981783481365</v>
       </c>
       <c r="C15" t="n">
-        <v>361.5489708466235</v>
+        <v>382.2451490670095</v>
       </c>
       <c r="D15" t="n">
-        <v>212.6145611853723</v>
+        <v>233.3107394057582</v>
       </c>
       <c r="E15" t="n">
-        <v>53.37710617991678</v>
+        <v>74.07328440030273</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>74.07328440030273</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>74.07328440030273</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>74.07328440030273</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5381,28 +5381,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U15" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V15" t="n">
-        <v>1374.066492846507</v>
+        <v>1186.91117086136</v>
       </c>
       <c r="W15" t="n">
-        <v>1119.829136118305</v>
+        <v>932.6738141331584</v>
       </c>
       <c r="X15" t="n">
-        <v>911.9776359127725</v>
+        <v>932.6738141331584</v>
       </c>
       <c r="Y15" t="n">
-        <v>704.2173371478186</v>
+        <v>724.9135153682046</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F16" t="n">
         <v>32.45932575975219</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>194.1667418687505</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975218</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G17" t="n">
         <v>32.45932575975218</v>
@@ -5548,19 +5548,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1145.293579355068</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>792.5249240849539</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X17" t="n">
-        <v>419.059165823874</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y17" t="n">
-        <v>419.059165823874</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.0882603251556</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="C18" t="n">
-        <v>222.0882603251556</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="D18" t="n">
-        <v>222.0882603251556</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E18" t="n">
-        <v>222.0882603251556</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0882603251556</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L18" t="n">
-        <v>208.2166101768439</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>607.6347467811067</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N18" t="n">
-        <v>1009.31890305804</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1332.332410232598</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1574.576159436606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5624,22 +5624,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1285.319910857246</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1285.319910857246</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1050.167802625503</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>1050.167802625503</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>842.31630241997</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.0882603251556</v>
+        <v>634.5560036550162</v>
       </c>
     </row>
     <row r="19">
@@ -5694,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1337.726243935712</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="C20" t="n">
-        <v>968.7637269953007</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="D20" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E20" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953007</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5779,25 +5779,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T20" t="n">
-        <v>1591.563127003458</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U20" t="n">
-        <v>1337.726243935712</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V20" t="n">
-        <v>1337.726243935712</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W20" t="n">
-        <v>1337.726243935712</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="X20" t="n">
-        <v>1337.726243935712</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="Y20" t="n">
-        <v>1337.726243935712</v>
+        <v>1210.404967794588</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.6900832088124</v>
+        <v>561.9445384946564</v>
       </c>
       <c r="C21" t="n">
-        <v>790.2370539276855</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D21" t="n">
-        <v>641.3026442664342</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E21" t="n">
-        <v>482.0651892609787</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>335.5306312878637</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>197.1182580470339</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>86.82470005449719</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668621</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
-        <v>1271.486777082839</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5858,25 +5858,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1340.665718993834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1340.665718993834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V21" t="n">
-        <v>1340.665718993834</v>
+        <v>938.0113757202573</v>
       </c>
       <c r="W21" t="n">
-        <v>1340.665718993834</v>
+        <v>938.0113757202573</v>
       </c>
       <c r="X21" t="n">
-        <v>1340.665718993834</v>
+        <v>730.1598755147245</v>
       </c>
       <c r="Y21" t="n">
-        <v>1132.905420228881</v>
+        <v>730.1598755147245</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5943,19 +5943,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1232.826956011797</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C23" t="n">
-        <v>863.8644390713857</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D23" t="n">
-        <v>863.8644390713857</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E23" t="n">
-        <v>863.8644390713857</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F23" t="n">
-        <v>863.8644390713857</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
@@ -5998,7 +5998,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X23" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y23" t="n">
-        <v>1232.826956011797</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.6600854869342</v>
+        <v>389.1968927644969</v>
       </c>
       <c r="C24" t="n">
-        <v>815.2070562058072</v>
+        <v>214.7438634833699</v>
       </c>
       <c r="D24" t="n">
-        <v>666.272646544556</v>
+        <v>65.80945382211863</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1340.665718993834</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U24" t="n">
-        <v>1340.665718993834</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V24" t="n">
-        <v>1105.513610762092</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="W24" t="n">
-        <v>1105.513610762092</v>
+        <v>973.0240287550516</v>
       </c>
       <c r="X24" t="n">
-        <v>1105.513610762092</v>
+        <v>765.1725285495188</v>
       </c>
       <c r="Y24" t="n">
-        <v>1105.513610762092</v>
+        <v>557.4122297845649</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H25" t="n">
         <v>32.45932575975218</v>
@@ -6189,10 +6189,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>133.2570507049327</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>917.1894538880083</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C26" t="n">
-        <v>917.1894538880083</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D26" t="n">
-        <v>558.9237552812579</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E26" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1557.626177019876</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1557.626177019876</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="T26" t="n">
-        <v>1557.626177019876</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="U26" t="n">
-        <v>1303.78929395213</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="V26" t="n">
-        <v>1303.78929395213</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="W26" t="n">
-        <v>1303.78929395213</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="X26" t="n">
-        <v>1303.78929395213</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="Y26" t="n">
-        <v>1303.78929395213</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.45932575975219</v>
+        <v>466.1403226946671</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45932575975219</v>
+        <v>291.6872934135401</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1479.07313504225</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1278.170126147744</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894784</v>
+        <v>1049.967458685222</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577356</v>
+        <v>1049.967458685222</v>
       </c>
       <c r="W27" t="n">
-        <v>455.571351529534</v>
+        <v>1049.967458685222</v>
       </c>
       <c r="X27" t="n">
-        <v>247.7198513240011</v>
+        <v>842.115958479689</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.95955255904721</v>
+        <v>634.3556597147351</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6405,31 +6405,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1508.970645214177</v>
+        <v>657.3143811224511</v>
       </c>
       <c r="C29" t="n">
-        <v>1508.970645214177</v>
+        <v>657.3143811224511</v>
       </c>
       <c r="D29" t="n">
-        <v>1150.704946607427</v>
+        <v>657.3143811224511</v>
       </c>
       <c r="E29" t="n">
-        <v>1150.704946607427</v>
+        <v>657.3143811224511</v>
       </c>
       <c r="F29" t="n">
-        <v>968.7637269953004</v>
+        <v>247.4744094084083</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
@@ -6472,7 +6472,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U29" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V29" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W29" t="n">
-        <v>1508.970645214177</v>
+        <v>1047.453713098263</v>
       </c>
       <c r="X29" t="n">
-        <v>1508.970645214177</v>
+        <v>1047.453713098263</v>
       </c>
       <c r="Y29" t="n">
-        <v>1508.970645214177</v>
+        <v>657.3143811224511</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.45932575975218</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6542,16 +6542,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609043</v>
@@ -6566,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1530.579385570835</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894781</v>
+        <v>1530.579385570835</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577354</v>
+        <v>1295.427277339092</v>
       </c>
       <c r="W30" t="n">
-        <v>455.5713515295337</v>
+        <v>1041.18992061089</v>
       </c>
       <c r="X30" t="n">
-        <v>247.7198513240009</v>
+        <v>833.3384204053575</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.95955255904698</v>
+        <v>625.5781216404037</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>1476.076340489699</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
-        <v>1306.655462159183</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>862.9006896624076</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>862.9006896624076</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>862.9006896624076</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>477.1124370641633</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>67.27246535012057</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>32.45932575975218</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.45932575975218</v>
+        <v>1249.500529726529</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>729.5389244352643</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>555.0858951541373</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>406.1514854928861</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9140304874306</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>100.3794725143156</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>100.3794725143156</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
         <v>32.45932575975218</v>
@@ -6779,16 +6779,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
         <v>1057.709031609043</v>
@@ -6803,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U33" t="n">
-        <v>1313.366060425819</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>1313.366060425819</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>1313.366060425819</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>1105.514560220286</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>897.7542614553324</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.971591287941</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.966287987609</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="D35" t="n">
-        <v>1622.966287987609</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E35" t="n">
-        <v>1378.603698709343</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F35" t="n">
-        <v>968.7637269953004</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6967,22 +6967,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="Y35" t="n">
-        <v>1622.966287987609</v>
+        <v>1556.127353085079</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>594.4195962804527</v>
+        <v>353.4469130139943</v>
       </c>
       <c r="C36" t="n">
-        <v>419.9665669993257</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D36" t="n">
-        <v>271.0321573380744</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E36" t="n">
-        <v>111.7947023326189</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O36" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7049,19 +7049,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V36" t="n">
-        <v>1387.814179755866</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W36" t="n">
-        <v>1178.246732271007</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X36" t="n">
-        <v>970.3952320654746</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y36" t="n">
-        <v>762.6349333005207</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1523.286351224524</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y37" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975218</v>
+        <v>829.1880102743207</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975218</v>
+        <v>829.1880102743207</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975218</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T38" t="n">
-        <v>1360.267083416995</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U38" t="n">
-        <v>1106.430200349249</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V38" t="n">
-        <v>775.3673130056781</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W38" t="n">
-        <v>422.5986577355639</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X38" t="n">
-        <v>422.5986577355639</v>
+        <v>829.1880102743207</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975218</v>
+        <v>829.1880102743207</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>509.4350432272366</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>509.4350432272366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
         <v>1057.709031609043</v>
@@ -7277,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U39" t="n">
-        <v>1093.262179217791</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V39" t="n">
-        <v>1093.262179217791</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W39" t="n">
-        <v>1093.262179217791</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X39" t="n">
-        <v>885.4106790122585</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y39" t="n">
-        <v>677.6503802473046</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="C40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="D40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="E40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975218</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I40" t="n">
         <v>32.45932575975218</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="V40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="W40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="X40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.05002336285361</v>
+        <v>350.8720809166119</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>119.9927024164817</v>
+        <v>912.7609673338652</v>
       </c>
       <c r="C41" t="n">
-        <v>119.9927024164817</v>
+        <v>543.7984503934535</v>
       </c>
       <c r="D41" t="n">
-        <v>119.9927024164817</v>
+        <v>543.7984503934535</v>
       </c>
       <c r="E41" t="n">
-        <v>119.9927024164817</v>
+        <v>158.0101977952093</v>
       </c>
       <c r="F41" t="n">
-        <v>119.9927024164817</v>
+        <v>158.0101977952093</v>
       </c>
       <c r="G41" t="n">
-        <v>119.9927024164817</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975218</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X41" t="n">
-        <v>896.7318744564152</v>
+        <v>912.7609673338652</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.5925424806035</v>
+        <v>912.7609673338652</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.6600854869342</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1483.544830741941</v>
       </c>
       <c r="U42" t="n">
-        <v>1173.163483952</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="V42" t="n">
-        <v>1173.163483952</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="W42" t="n">
-        <v>1173.163483952</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="X42" t="n">
-        <v>1173.163483952</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.875422507002</v>
+        <v>1047.581864514465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="C43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="D43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1369.60575604483</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="W43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="X43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="Y43" t="n">
-        <v>1518.597632871174</v>
+        <v>193.9514651575251</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1169.527513020957</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C44" t="n">
-        <v>800.5649960805454</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D44" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="E44" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="F44" t="n">
         <v>442.2992974737949</v>
-      </c>
-      <c r="E44" t="n">
-        <v>442.2992974737949</v>
-      </c>
-      <c r="F44" t="n">
-        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7690,10 +7690,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1249.500529726529</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>1169.527513020957</v>
+        <v>1238.739109251959</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>851.2477122461045</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G45" t="n">
         <v>222.0882603251556</v>
@@ -7730,19 +7730,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
         <v>1622.966287987609</v>
@@ -7757,22 +7757,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1481.460704759328</v>
       </c>
       <c r="U45" t="n">
-        <v>1622.966287987609</v>
+        <v>1481.460704759328</v>
       </c>
       <c r="V45" t="n">
-        <v>1622.966287987609</v>
+        <v>1481.460704759328</v>
       </c>
       <c r="W45" t="n">
-        <v>1573.487221477489</v>
+        <v>1227.223348031126</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>1227.223348031126</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>1019.463049266172</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C46" t="n">
         <v>32.45932575975218</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>321.6559039998486</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1125443848066</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>281.038292321383</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304797</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
         <v>86.93262649026376</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>351.7205150479951</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275543</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.6170522310418</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>390.1250211658772</v>
+        <v>447.9178485742653</v>
       </c>
       <c r="O21" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>92.88803957954771</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>241.3813618149015</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.18790452568</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026376</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210686</v>
       </c>
       <c r="N36" t="n">
-        <v>270.4206501018625</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026376</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7205150479949</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q45" t="n">
         <v>99.73813450275543</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>171.6219548525251</v>
       </c>
       <c r="U11" t="n">
-        <v>161.3167667589224</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>76.51755772272313</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>45.6372894170411</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>180.2156082447829</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>239.5174460720427</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.2639215113297</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>124.3606097774209</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -23594,7 +23594,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>37.34420375299301</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>131.7646687215921</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>319.2639215113299</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23788,19 +23788,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>106.1547911609877</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>111.0348626361931</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>180.3074206884475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23946,10 +23946,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>24.8349101572739</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>106.4702204209994</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>189.4273510487302</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.3981755609689</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>98.67749679418417</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>24.7203022553405</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24183,16 +24183,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>186.7332506408622</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>112.8222271783072</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>105.7059770684465</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.83819362746165</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>124.6284536736582</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>2.104484466239711</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,10 +24460,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>48.1689764876414</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>105.611166356501</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>159.1079591185653</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,7 +24539,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>103.956575773786</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.64421495084042</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>226.7542383257064</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>201.8485713183643</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>159.1079591185655</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>107.4309454129549</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>147.525532489171</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24897,10 +24897,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>380.2484959360692</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>252.3860301008911</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>41.94967712559362</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25128,7 +25128,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>69.04353215175578</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>118.7949056563662</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0114066867786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>154.3459348695347</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>31.5808945050116</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25253,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,13 +25289,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>44.22321015090918</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>46.73791062747662</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25362,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>120.7272614763991</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>353.5935860204243</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>73.29995424382903</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U39" t="n">
-        <v>146.81834910103</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>106.2262573958608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25599,13 +25599,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>209.1396233923786</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>290.4181408154313</v>
       </c>
       <c r="H41" t="n">
-        <v>246.7822728255584</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>60.86673613235027</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5475149467566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>126.1137933559315</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>61.19408060834058</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.064652117537</v>
+        <v>5.853031707760465</v>
       </c>
     </row>
     <row r="45">
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>58.80345140956325</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -26006,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>60.33207136595672</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,10 +26076,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>187.6214750622408</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.7720998455</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457164.7720998459</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.7720998459</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457164.7720998456</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457164.7720998459</v>
+        <v>457164.7720998458</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>457164.772099846</v>
+        <v>457164.7720998455</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.7720998459</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457164.772099846</v>
+        <v>457164.7720998458</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>299080.4558904495</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="F2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="G2" t="n">
         <v>299080.4558904493</v>
@@ -26334,13 +26334,13 @@
         <v>299080.4558904492</v>
       </c>
       <c r="I2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="J2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="K2" t="n">
         <v>299080.4558904493</v>
-      </c>
-      <c r="K2" t="n">
-        <v>299080.4558904492</v>
       </c>
       <c r="L2" t="n">
         <v>299080.4558904495</v>
@@ -26349,13 +26349,13 @@
         <v>299080.4558904493</v>
       </c>
       <c r="N2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="O2" t="n">
         <v>299080.4558904493</v>
       </c>
-      <c r="O2" t="n">
-        <v>299080.4558904495</v>
-      </c>
       <c r="P2" t="n">
-        <v>299080.4558904494</v>
+        <v>299080.4558904493</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="J4" t="n">
-        <v>8850.046967220575</v>
+        <v>8850.046967220573</v>
       </c>
       <c r="K4" t="n">
         <v>8850.046967220573</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
@@ -26487,13 +26487,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375756</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158185.899905887</v>
+        <v>158185.8999058869</v>
       </c>
       <c r="C6" t="n">
         <v>238955.3314374347</v>
       </c>
       <c r="D6" t="n">
-        <v>238955.3314374349</v>
+        <v>238955.3314374348</v>
       </c>
       <c r="E6" t="n">
-        <v>95425.8858842245</v>
+        <v>85581.2864908476</v>
       </c>
       <c r="F6" t="n">
-        <v>262366.0560094712</v>
+        <v>252521.4566160943</v>
       </c>
       <c r="G6" t="n">
-        <v>262366.0560094712</v>
+        <v>252521.4566160945</v>
       </c>
       <c r="H6" t="n">
-        <v>262366.0560094711</v>
+        <v>252521.4566160944</v>
       </c>
       <c r="I6" t="n">
-        <v>262366.0560094711</v>
+        <v>252521.4566160945</v>
       </c>
       <c r="J6" t="n">
-        <v>199306.1134103649</v>
+        <v>189461.5140169884</v>
       </c>
       <c r="K6" t="n">
-        <v>262366.0560094711</v>
+        <v>252521.4566160945</v>
       </c>
       <c r="L6" t="n">
-        <v>262366.0560094714</v>
+        <v>252521.4566160947</v>
       </c>
       <c r="M6" t="n">
-        <v>221315.3581470232</v>
+        <v>211470.7587536465</v>
       </c>
       <c r="N6" t="n">
-        <v>262366.0560094712</v>
+        <v>252521.4566160942</v>
       </c>
       <c r="O6" t="n">
-        <v>262366.0560094714</v>
+        <v>252521.4566160945</v>
       </c>
       <c r="P6" t="n">
-        <v>262366.0560094713</v>
+        <v>252521.4566160945</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151.8593460673979</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27435,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>218.0713248386154</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>149.2510466508752</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>102.6114773181691</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>188.6215101393542</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27660,25 +27660,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>147.5069787288446</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>24.98494807699683</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27934,22 +27934,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.78629307554833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>121.6721164735665</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>55.51629994036219</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>218.7858918080124</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>302.3746655144177</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35983,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.87891772828636</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>340.7791716322998</v>
+        <v>398.571999040688</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223148</v>
@@ -36448,7 +36448,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>43.54219004597032</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36457,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,7 +36685,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>192.0355122813241</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223148</v>
@@ -36922,7 +36922,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>124.8420549921026</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>12.2139929987362</v>
       </c>
       <c r="N36" t="n">
-        <v>221.0748005682852</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144175</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,13 +38107,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1843825.732851154</v>
+        <v>1893718.509502153</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6479065.762182384</v>
+        <v>6479065.762182385</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>216.6234524382191</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>147.8384382869357</v>
       </c>
       <c r="Y3" t="n">
-        <v>103.0712184591353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.17354161800006</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -946,13 +946,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>81.72544468042116</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>52.65774996597702</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>55.71194092525318</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>135.9049866160226</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>48.89452557051471</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.8948017773091</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>81.12752273267782</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>70.88970837335273</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>175.1960580584912</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>306.4549242895717</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>41.19781905414503</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>35.54483890212047</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.66929392497709</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>46.00897025967765</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>124.5933116124546</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>87.85911616936852</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>37.82294225920696</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>145.6674229028286</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.68344852095591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>212.8427931564441</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>74.03100219413157</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2216,10 +2216,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>85.96798471867572</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>29.13178692890493</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>264.0251236100225</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>33.01662678174278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>128.819580317524</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6221850809707</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>73.3617597609379</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>89.98174747814556</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>156.9847646699512</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>9.46678622243968</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>61.87063691762972</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2693,10 +2693,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8649328121696</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>74.45877349636949</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2873,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T30" t="n">
-        <v>91.46303339260679</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>141.6396260835077</v>
       </c>
       <c r="G32" t="n">
-        <v>34.4650081944647</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>114.1942888468236</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>16.62348068932458</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>66.17054555350505</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>22.81820347230862</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.9522891448557</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.94629508123412</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.68313739545462</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>1.089455600258695</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>35.41912010935305</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>114.1942888468236</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>88.4532703950434</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>10.27077547947476</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>124.2953633151025</v>
+        <v>399.8885402891419</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.585499925539775</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>138.0272426732114</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>165.6221850809707</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2.585499925539691</v>
       </c>
       <c r="T45" t="n">
-        <v>140.0905273959984</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.2131239441131598</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4360,22 +4360,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.5599471655395</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="C3" t="n">
-        <v>416.1069178844125</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D3" t="n">
-        <v>416.1069178844125</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,10 +4412,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
         <v>234.810827406191</v>
@@ -4439,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="Y3" t="n">
-        <v>758.7752841856075</v>
+        <v>511.3692755768984</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>315.6850394389064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433.7223438482202</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>444.9858201382948</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>444.9858201382948</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>809.6979796332421</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>809.6979796332421</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>809.6979796332421</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>809.6979796332421</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>809.6979796332421</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y6" t="n">
-        <v>601.9376808682882</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.308225475175</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>725.6098618049132</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
         <v>41.77557929797318</v>
@@ -4998,16 +4998,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1376.009278487446</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C11" t="n">
-        <v>1376.009278487446</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D11" t="n">
-        <v>1017.743579880696</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E11" t="n">
         <v>631.9553272824514</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1376.009278487446</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1376.009278487446</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V11" t="n">
-        <v>1376.009278487446</v>
+        <v>984.7239825525655</v>
       </c>
       <c r="W11" t="n">
-        <v>1376.009278487446</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="X11" t="n">
-        <v>1376.009278487446</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="Y11" t="n">
-        <v>1376.009278487446</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>288.8593477001497</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C12" t="n">
-        <v>114.4063184190227</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D12" t="n">
-        <v>114.4063184190227</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G12" t="n">
         <v>32.45932575975218</v>
@@ -5123,49 +5123,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1910807414154</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M12" t="n">
-        <v>729.6092173456783</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N12" t="n">
-        <v>1131.293373622612</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O12" t="n">
-        <v>1454.30688079717</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.360521953919</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="T12" t="n">
-        <v>1422.063279093102</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="U12" t="n">
-        <v>1193.860611630581</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="V12" t="n">
-        <v>958.708503398838</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="W12" t="n">
-        <v>704.4711466706365</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="X12" t="n">
-        <v>496.6196464651036</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y12" t="n">
-        <v>288.8593477001497</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="13">
@@ -5223,19 +5223,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
         <v>32.45932575975218</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
@@ -5314,16 +5314,16 @@
         <v>1088.658125761969</v>
       </c>
       <c r="V14" t="n">
-        <v>1088.658125761969</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="W14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="X14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y14" t="n">
-        <v>735.889470491855</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>556.6981783481365</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C15" t="n">
-        <v>382.2451490670095</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D15" t="n">
-        <v>233.3107394057582</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E15" t="n">
-        <v>74.07328440030273</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>74.07328440030273</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>74.07328440030273</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>74.07328440030273</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5387,22 +5387,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093103</v>
+        <v>1587.0624103087</v>
       </c>
       <c r="U15" t="n">
-        <v>1422.063279093103</v>
+        <v>1358.859742846178</v>
       </c>
       <c r="V15" t="n">
-        <v>1186.91117086136</v>
+        <v>1123.707634614435</v>
       </c>
       <c r="W15" t="n">
-        <v>932.6738141331584</v>
+        <v>869.4702778862338</v>
       </c>
       <c r="X15" t="n">
-        <v>932.6738141331584</v>
+        <v>661.618777680701</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.9135153682046</v>
+        <v>661.618777680701</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
         <v>32.45932575975219</v>
@@ -5460,28 +5460,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>194.1667418687505</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1232.826956011797</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="C17" t="n">
-        <v>1186.35324867879</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="D17" t="n">
-        <v>828.0875500720392</v>
+        <v>544.0994082695668</v>
       </c>
       <c r="E17" t="n">
-        <v>442.2992974737949</v>
+        <v>158.3111556713225</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2992974737949</v>
+        <v>158.3111556713225</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>158.3111556713225</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>158.3111556713225</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>902.3651068763172</v>
       </c>
       <c r="Y17" t="n">
-        <v>1232.826956011797</v>
+        <v>902.3651068763172</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>466.3406666349482</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C18" t="n">
-        <v>466.3406666349482</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D18" t="n">
-        <v>317.4062569736969</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E18" t="n">
         <v>317.4062569736969</v>
@@ -5594,52 +5594,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1285.319910857246</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U18" t="n">
-        <v>1285.319910857246</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="V18" t="n">
-        <v>1050.167802625503</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="W18" t="n">
-        <v>1050.167802625503</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="X18" t="n">
-        <v>842.31630241997</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y18" t="n">
-        <v>634.5560036550162</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="19">
@@ -5709,16 +5709,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>214.1077905899919</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W19" t="n">
-        <v>214.1077905899919</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X19" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>852.1392691878377</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2992974737949</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5779,16 +5779,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1425.397688154633</v>
+        <v>1541.467855138159</v>
       </c>
       <c r="V20" t="n">
-        <v>1425.397688154633</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="W20" t="n">
         <v>1210.404967794588</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>561.9445384946564</v>
+        <v>583.8975598600312</v>
       </c>
       <c r="C21" t="n">
-        <v>487.165748399574</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="D21" t="n">
-        <v>338.2313387383227</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9938837328672</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M21" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N21" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O21" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1173.163483952</v>
+        <v>1167.724695850586</v>
       </c>
       <c r="V21" t="n">
-        <v>938.0113757202573</v>
+        <v>1167.724695850586</v>
       </c>
       <c r="W21" t="n">
-        <v>938.0113757202573</v>
+        <v>1167.724695850586</v>
       </c>
       <c r="X21" t="n">
-        <v>730.1598755147245</v>
+        <v>959.8731956450531</v>
       </c>
       <c r="Y21" t="n">
-        <v>730.1598755147245</v>
+        <v>752.1128968800992</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5937,25 +5937,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U22" t="n">
-        <v>321.8764957967128</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V22" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>852.1392691878377</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C23" t="n">
-        <v>852.1392691878377</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D23" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E23" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521505</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1593.540240584675</v>
       </c>
       <c r="S23" t="n">
-        <v>1508.970645214177</v>
+        <v>1593.540240584675</v>
       </c>
       <c r="T23" t="n">
-        <v>1508.970645214177</v>
+        <v>1370.796320965443</v>
       </c>
       <c r="U23" t="n">
-        <v>1508.970645214177</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="V23" t="n">
-        <v>1508.970645214177</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="W23" t="n">
-        <v>1508.970645214177</v>
+        <v>764.1907826275826</v>
       </c>
       <c r="X23" t="n">
-        <v>1242.278601163649</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y23" t="n">
-        <v>852.1392691878377</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>389.1968927644969</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="C24" t="n">
-        <v>214.7438634833699</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D24" t="n">
-        <v>65.80945382211863</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O24" t="n">
         <v>1380.722538783602</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1455.464052945775</v>
+        <v>1411.447939688822</v>
       </c>
       <c r="U24" t="n">
-        <v>1227.261385483253</v>
+        <v>1411.447939688822</v>
       </c>
       <c r="V24" t="n">
-        <v>1227.261385483253</v>
+        <v>1176.295831457079</v>
       </c>
       <c r="W24" t="n">
-        <v>973.0240287550516</v>
+        <v>922.0584747288775</v>
       </c>
       <c r="X24" t="n">
-        <v>765.1725285495188</v>
+        <v>714.2069745233447</v>
       </c>
       <c r="Y24" t="n">
-        <v>557.4122297845649</v>
+        <v>506.4466757583908</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6183,16 +6183,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1145.475793905159</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
         <v>32.45932575975218</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1532.07563396928</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T26" t="n">
-        <v>1532.07563396928</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U26" t="n">
-        <v>1532.07563396928</v>
+        <v>1127.656256231358</v>
       </c>
       <c r="V26" t="n">
-        <v>1532.07563396928</v>
+        <v>1127.656256231358</v>
       </c>
       <c r="W26" t="n">
-        <v>1532.07563396928</v>
+        <v>774.8876009612438</v>
       </c>
       <c r="X26" t="n">
-        <v>1532.07563396928</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="Y26" t="n">
-        <v>1532.07563396928</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>466.1403226946671</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C27" t="n">
-        <v>291.6872934135401</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D27" t="n">
-        <v>142.7528837522889</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E27" t="n">
-        <v>142.7528837522889</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F27" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1479.07313504225</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1278.170126147744</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1049.967458685222</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V27" t="n">
-        <v>1049.967458685222</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W27" t="n">
-        <v>1049.967458685222</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X27" t="n">
-        <v>842.115958479689</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y27" t="n">
-        <v>634.3556597147351</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.2570507049327</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C28" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
         <v>32.45932575975218</v>
@@ -6426,10 +6426,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>133.2570507049327</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.2570507049327</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>657.3143811224511</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C29" t="n">
-        <v>657.3143811224511</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D29" t="n">
-        <v>657.3143811224511</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>657.3143811224511</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>247.4744094084083</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6493,22 +6493,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1400.222368368377</v>
+        <v>1547.755405668044</v>
       </c>
       <c r="W29" t="n">
-        <v>1047.453713098263</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="X29" t="n">
-        <v>1047.453713098263</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y29" t="n">
-        <v>657.3143811224511</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>625.5781216404037</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>625.5781216404037</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T30" t="n">
-        <v>1530.579385570835</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U30" t="n">
-        <v>1530.579385570835</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V30" t="n">
-        <v>1295.427277339092</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W30" t="n">
-        <v>1041.18992061089</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X30" t="n">
-        <v>833.3384204053575</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y30" t="n">
-        <v>625.5781216404037</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V31" t="n">
-        <v>321.8764957967128</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X31" t="n">
         <v>32.45932575975218</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>862.9006896624076</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="C32" t="n">
-        <v>862.9006896624076</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="D32" t="n">
-        <v>862.9006896624076</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1124370641633</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="F32" t="n">
-        <v>67.27246535012057</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6736,16 +6736,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X32" t="n">
-        <v>1249.500529726529</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.500529726529</v>
+        <v>175.5296551370327</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
@@ -6791,10 +6791,10 @@
         <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>1405.271884457421</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>1405.271884457421</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>1197.420384251888</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8802040902677</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E34" t="n">
-        <v>201.8802040902677</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F34" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
         <v>32.45932575975218</v>
@@ -6888,22 +6888,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1169.527513020957</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C35" t="n">
-        <v>800.5649960805455</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D35" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E35" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F35" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975219</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T35" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U35" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V35" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W35" t="n">
-        <v>1556.127353085079</v>
+        <v>1156.201989944064</v>
       </c>
       <c r="X35" t="n">
-        <v>1556.127353085079</v>
+        <v>782.7362316829838</v>
       </c>
       <c r="Y35" t="n">
-        <v>1556.127353085079</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>353.4469130139943</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C36" t="n">
-        <v>178.9938837328672</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D36" t="n">
-        <v>178.9938837328672</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E36" t="n">
-        <v>178.9938837328672</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313477</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.667000026767</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.667000026767</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.667000026767</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.763620525088</v>
+        <v>1359.464332564245</v>
       </c>
       <c r="V36" t="n">
-        <v>1159.611512293345</v>
+        <v>1124.312224332502</v>
       </c>
       <c r="W36" t="n">
-        <v>905.3741555651434</v>
+        <v>870.0748676043007</v>
       </c>
       <c r="X36" t="n">
-        <v>697.5226553596106</v>
+        <v>662.2233673987679</v>
       </c>
       <c r="Y36" t="n">
-        <v>489.7623565946566</v>
+        <v>454.463068633814</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="C37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="D37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="E37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7122,25 +7122,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.1392625228377</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>829.1880102743207</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C38" t="n">
-        <v>829.1880102743207</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D38" t="n">
         <v>828.0875500720392</v>
@@ -7162,7 +7162,7 @@
         <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975218</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7201,25 +7201,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.397688154633</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="T38" t="n">
-        <v>1202.653768535401</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="U38" t="n">
-        <v>1202.653768535401</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="V38" t="n">
-        <v>1202.653768535401</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="W38" t="n">
-        <v>1202.653768535401</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="X38" t="n">
-        <v>829.1880102743207</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="Y38" t="n">
-        <v>829.1880102743207</v>
+        <v>1197.050067012451</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
@@ -7256,19 +7256,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975218</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456783</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7283,22 +7283,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1111.91361897131</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V39" t="n">
-        <v>876.7615107395675</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W39" t="n">
-        <v>622.5241540113659</v>
+        <v>701.8595305842327</v>
       </c>
       <c r="X39" t="n">
-        <v>414.6726538058331</v>
+        <v>494.0080303786999</v>
       </c>
       <c r="Y39" t="n">
-        <v>206.9123550408792</v>
+        <v>286.2477316137459</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
         <v>32.45932575975218</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>350.8720809166119</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U40" t="n">
-        <v>350.8720809166119</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>350.8720809166119</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>912.7609673338652</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C41" t="n">
-        <v>543.7984503934535</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D41" t="n">
-        <v>543.7984503934535</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E41" t="n">
-        <v>158.0101977952093</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="F41" t="n">
-        <v>158.0101977952093</v>
+        <v>436.3871442336329</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>912.7609673338652</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>912.7609673338652</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>879.3665274943975</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C42" t="n">
-        <v>704.9134982132705</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D42" t="n">
-        <v>555.9790885520192</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="E42" t="n">
-        <v>396.7416335465637</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="F42" t="n">
-        <v>250.2070755734487</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7490,22 +7490,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7520,22 +7520,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1483.544830741941</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U42" t="n">
-        <v>1255.342163279419</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V42" t="n">
-        <v>1255.342163279419</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W42" t="n">
-        <v>1255.342163279419</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X42" t="n">
-        <v>1255.342163279419</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y42" t="n">
-        <v>1047.581864514465</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>193.9514651575251</v>
+        <v>191.8257232724345</v>
       </c>
       <c r="H43" t="n">
         <v>32.45932575975218</v>
@@ -7599,22 +7599,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>851.2477122461045</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C45" t="n">
-        <v>676.7946829649775</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D45" t="n">
-        <v>527.8602733037262</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E45" t="n">
-        <v>368.6228182982707</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F45" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7733,19 +7733,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1620.354671901205</v>
       </c>
       <c r="T45" t="n">
-        <v>1481.460704759328</v>
+        <v>1419.451663006699</v>
       </c>
       <c r="U45" t="n">
-        <v>1481.460704759328</v>
+        <v>1191.248995544177</v>
       </c>
       <c r="V45" t="n">
-        <v>1481.460704759328</v>
+        <v>956.0968873124343</v>
       </c>
       <c r="W45" t="n">
-        <v>1227.223348031126</v>
+        <v>701.8595305842327</v>
       </c>
       <c r="X45" t="n">
-        <v>1227.223348031126</v>
+        <v>494.0080303786999</v>
       </c>
       <c r="Y45" t="n">
-        <v>1019.463049266172</v>
+        <v>286.2477316137459</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.45402245942</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975218</v>
@@ -7830,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.45402245942</v>
+        <v>194.1667418687505</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,7 +8771,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>146.9565108232705</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>244.1351504444137</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>86.93262649026376</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>244.1351504444139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275543</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
         <v>86.93262649026376</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.9178485742653</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588916</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N27" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>74.46639351210686</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304798</v>
+        <v>380.7598033349566</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275543</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>171.6219548525251</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>224.8574566928258</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>76.51755772272313</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>9.693876124922781</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>59.320056923945</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23475,10 +23475,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>213.1612385756531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>239.5174460720427</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>21.29733418056321</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -23594,7 +23594,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>37.34420375299301</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>163.3491399034412</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7646687215921</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23700,13 +23700,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>319.2639215113299</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>63.16615789811527</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
@@ -23788,19 +23788,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>111.0348626361931</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>188.0976985286896</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23949,13 +23949,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>106.4702204209994</v>
+        <v>152.3478956280993</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24019,19 +24019,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>170.6150657161125</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>136.3981755609689</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>98.67749679418417</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,10 +24104,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>139.9526560692209</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24177,19 +24177,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>146.0486391109154</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>247.3282077095206</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.72389941679252</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>105.7059770684465</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>124.6284536736582</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>70.07439848803764</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>2.104484466239711</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24423,7 +24423,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>145.2228935911569</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>105.611166356501</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>94.31374956711716</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>135.6024261709442</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>103.956575773786</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579923</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.64421495084042</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>201.8485713183643</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24733,13 +24733,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>253.2934849737654</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24761,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24809,13 +24809,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T30" t="n">
-        <v>107.4309454129549</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>213.1612385756531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>186.5148647619667</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>265.2364196582037</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2484959360692</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24976,16 +24976,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>84.69968995873803</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>216.1771064601007</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25128,7 +25128,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>69.04353215175578</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>154.3459348695347</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>363.419735183745</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.5808945050116</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25253,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>45.63728941704139</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>46.73791062747662</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>61.63766533429788</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25362,10 +25362,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>353.5935860204243</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G38" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25441,10 +25441,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>160.1737937252935</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>84.69968995873803</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>163.2417127658762</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25599,16 +25599,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>209.1396233923786</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>290.4181408154313</v>
+        <v>14.82496384139199</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>106.6051224870716</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,19 +25760,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>60.86673613235027</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.104484466239711</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25839,7 +25839,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>61.19408060834058</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>163.2417127658761</v>
       </c>
       <c r="T45" t="n">
-        <v>58.80345140956325</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>60.33207136595672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.2079240788181</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26070,7 +26070,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457164.7720998455</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457164.772099846</v>
+        <v>457164.7720998458</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457164.7720998459</v>
+        <v>457164.7720998456</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457164.772099846</v>
+        <v>457164.7720998458</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>457164.7720998455</v>
+        <v>457164.7720998458</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457164.7720998459</v>
+        <v>457164.7720998461</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>457164.772099846</v>
+        <v>457164.7720998458</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.772099846</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457164.7720998458</v>
+        <v>457164.7720998459</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049982</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>299080.4558904492</v>
@@ -26331,31 +26331,31 @@
         <v>299080.4558904493</v>
       </c>
       <c r="H2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="I2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="J2" t="n">
         <v>299080.4558904493</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>299080.4558904496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="M2" t="n">
         <v>299080.4558904495</v>
       </c>
-      <c r="K2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>299080.4558904495</v>
-      </c>
-      <c r="M2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="N2" t="n">
-        <v>299080.4558904491</v>
       </c>
       <c r="O2" t="n">
         <v>299080.4558904493</v>
       </c>
       <c r="P2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904492</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="M4" t="n">
-        <v>8850.046967220575</v>
+        <v>8850.046967220573</v>
       </c>
       <c r="N4" t="n">
         <v>8850.046967220573</v>
@@ -26459,7 +26459,7 @@
         <v>8850.046967220573</v>
       </c>
       <c r="P4" t="n">
-        <v>8850.046967220573</v>
+        <v>8850.046967220575</v>
       </c>
     </row>
     <row r="5">
@@ -26487,10 +26487,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158185.8999058869</v>
+        <v>158185.8999058871</v>
       </c>
       <c r="C6" t="n">
+        <v>238955.3314374349</v>
+      </c>
+      <c r="D6" t="n">
         <v>238955.3314374347</v>
       </c>
-      <c r="D6" t="n">
-        <v>238955.3314374348</v>
-      </c>
       <c r="E6" t="n">
-        <v>85581.2864908476</v>
+        <v>94441.42594488669</v>
       </c>
       <c r="F6" t="n">
-        <v>252521.4566160943</v>
+        <v>261381.5960701334</v>
       </c>
       <c r="G6" t="n">
-        <v>252521.4566160945</v>
+        <v>261381.5960701335</v>
       </c>
       <c r="H6" t="n">
-        <v>252521.4566160944</v>
+        <v>261381.5960701335</v>
       </c>
       <c r="I6" t="n">
-        <v>252521.4566160945</v>
+        <v>261381.5960701337</v>
       </c>
       <c r="J6" t="n">
-        <v>189461.5140169884</v>
+        <v>198321.6534710273</v>
       </c>
       <c r="K6" t="n">
-        <v>252521.4566160945</v>
+        <v>261381.5960701338</v>
       </c>
       <c r="L6" t="n">
-        <v>252521.4566160947</v>
+        <v>261381.5960701336</v>
       </c>
       <c r="M6" t="n">
-        <v>211470.7587536465</v>
+        <v>220330.8982076858</v>
       </c>
       <c r="N6" t="n">
-        <v>252521.4566160942</v>
+        <v>261381.5960701337</v>
       </c>
       <c r="O6" t="n">
-        <v>252521.4566160945</v>
+        <v>261381.5960701336</v>
       </c>
       <c r="P6" t="n">
-        <v>252521.4566160945</v>
+        <v>261381.5960701334</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>148.6494393327885</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.0713248386154</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>57.93454691654179</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.6114773181691</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7025041237114</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>75.91963577497978</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>147.5069787288446</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699683</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6756636163529</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463981</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>351.1641048164582</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>69.77770916128173</v>
       </c>
     </row>
     <row r="10">
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>60.02388433300675</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35506,10 +35506,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>398.571999040688</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223148</v>
@@ -36448,10 +36448,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545309</v>
       </c>
       <c r="P24" t="n">
         <v>244.6906557616239</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223148</v>
@@ -36682,10 +36682,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N27" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>12.2139929987362</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013792</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,13 +37633,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38113,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
